--- a/uploads/lich_phat_song_07092024.xlsx
+++ b/uploads/lich_phat_song_07092024.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,21 +486,981 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Thời sự sáng</t>
+          <t>Cảnh báo tiêu dùng</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/AUDIO/mp3:tss-070924.mp3/playlist.m3u8</t>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:cbtd-070924.mp4/playlist.m3u8</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
         <v>45542.02083333334</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Phim Cặp đôi cảnh sát (T1)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" s="2" t="n">
+        <v>45542.03125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Cẩm nang mua sắm</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:cnms-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45542.0625</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Hậu Giang trên đường phát triển Khoác áo mới cho đô thị Vị Thanh</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:hgtdpt-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45542.07291666666</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Thế giới chuyển động</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:tgcd-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45542.08333333334</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Phim Mình cưới nhau đi (T31,32)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" s="2" t="n">
+        <v>45542.09375</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>An ninh Hậu Giang</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:ANHG-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>45542.15625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ký sự nước Lào (T23)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" s="2" t="n">
+        <v>45542.16666666666</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Phim Hạc lệ hoa đình (T52)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" s="2" t="n">
+        <v>45542.17708333334</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>HGTV KẾT NỐI - Giới thiệu chương trình trong ngày</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" s="2" t="n">
+        <v>45542.20833333334</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Thời sự Hậu Giang</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" s="2" t="n">
+        <v>45542.21180555555</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Giai điệu quê hương Giai điệu ngày mưa</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" s="2" t="n">
+        <v>45542.22222222222</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Nông nghiệp sinh thái Xà lách, bắp cải, dưa leo hữu cơ</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:nnst-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>45542.23611111111</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Nhịp sống ngày mới</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:nsnm-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>45542.24652777778</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Phim Ninh Thạnh Lợi đất và lửa (T3)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" s="2" t="n">
+        <v>45542.26736111111</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Cẩm nang mua sắm</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:cnms-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>45542.29166666666</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Thời tiết nông vụ</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" s="2" t="n">
+        <v>45542.30208333334</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Tạp chí Văn hóa – Văn nghệ</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" s="2" t="n">
+        <v>45542.30555555555</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>An ninh Hậu Giang</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:ANHG-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>45542.31597222222</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Bóng thời gian</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:BTG-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>45542.32638888889</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Phim Con gái ông trùm (T31)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" s="2" t="n">
+        <v>45542.33333333334</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Hậu Giang trên đường phát triển Khoác áo mới cho đô thị Vị Thanh</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:hgtdpt-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>45542.36458333334</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ký sự nước Lào (T24)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" s="2" t="n">
+        <v>45542.375</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Phim Công thức yêu (T30,31)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" s="2" t="n">
+        <v>45542.38541666666</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Hậu Giang trên đường phát triển</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:hgtdpt-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>45542.44791666666</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Chuyện tình tôi kể Nghìn trùng xa cách</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" s="2" t="n">
+        <v>45542.45833333334</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Chuyển động Đông Tây</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:cddt-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>45542.47916666666</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Phim Duyên nợ</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" s="2" t="n">
+        <v>45542.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Hậu Giang trên đường phát triển</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:hgtdpt-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>45542.5625</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Nông nghiệp sinh thái</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:nnst-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>45542.57291666666</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>THTT Tọa đàm \"Đề án 06- Bước đột phá chuyển đổi số quốc gia\"</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" s="2" t="n">
+        <v>45542.58333333334</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Chương trình FM có hình Tài tử miệt vườn</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" s="2" t="n">
+        <v>45542.625</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Bản tin Khmer</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:Khmer-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>45542.65625</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Bảo vệ nền tảng tư tưởng của Đảng</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:BVNT-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>45542.66666666666</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Thế giới chuyển động</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:tgcd-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>45542.67708333334</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>An toàn giao thông</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" s="2" t="n">
+        <v>45542.68680555555</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Phim Hai Bình làm thủy điện</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" s="2" t="n">
+        <v>45542.6875</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Cảnh báo tiêu dùng</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:cbtd-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>45542.75</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Hành trình cây lúa khỏe</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" s="2" t="n">
+        <v>45542.76041666666</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Tin tức Mekong</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:ttmk-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>45542.77013888889</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Tiếp chuyển Thời sự VTV</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" s="2" t="n">
+        <v>45542.79166666666</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Thời sự Hậu Giang – Thời tiết nông vụ</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:tshg-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>45542.81944444445</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Tiếp sóng Vinh quang thầm lặng 2024</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" s="2" t="n">
+        <v>45542.84027777778</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Thế giới chuyển động</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:tgcd-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>45542.92708333334</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Hậu Giang trên đường phát triển</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:hgtdpt-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>45542.9375</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Hành trình cây lúa khỏe</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" s="2" t="n">
+        <v>45542.94791666666</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Nông nghiệp sinh thái Xà lách, bắp cải, dưa leo hữu cơ</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:nnst-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>45542.95833333334</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Bản tin Khmer</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://60acee235f4d5.streamlock.net:443/VODHGTV/definst/VIDEO/mp4:Khmer-070924.mp4/playlist.m3u8</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>45542.96875</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Chương trình FM có hình Tài tử miệt vườn</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" s="2" t="n">
+        <v>45542.97916666666</v>
       </c>
     </row>
   </sheetData>
